--- a/StructureDefinition-profile-ClinicalImpression.xlsx
+++ b/StructureDefinition-profile-ClinicalImpression.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6428998-06:00</t>
+    <t>2026-02-09T22:05:43.0245656-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,33 +425,60 @@
     <t>ClinicalImpression.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ClinicalImpression.extension:changePattern</t>
+  </si>
+  <si>
+    <t>changePattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.changePattern|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ClinicalImpression.changePattern from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Change in the status/pattern of a subject's condition since previously assessed, such as worsening, improving, or no change.  It is a subjective assessment of the direction of the change.</t>
+  </si>
+  <si>
+    <t>Element `ClinicalImpression.changePattern` is will have a context of ClinicalImpression based on following the parent source element upwards and mapping to `ClinicalImpression`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ClinicalImpression.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ClinicalImpression.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +486,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -542,20 +572,13 @@
     <t>ClinicalImpression.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ClinicalImpression.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.status|0.0.1-snapshot-3}
@@ -565,8 +588,8 @@
     <t>Cross-version extension for ClinicalImpression.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `ClinicalImpression.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `ClinicalImpression.status` is mapped to FHIR R4 element `ClinicalImpression.status`.</t>
   </si>
   <si>
     <t>ClinicalImpression.status.value</t>
@@ -816,6 +839,9 @@
   </si>
   <si>
     <t>ClinicalImpression.investigation.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1312,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1323,7 +1349,7 @@
   <cols>
     <col min="1" max="1" width="41.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.6875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2287,7 +2313,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2306,17 +2332,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2353,16 +2377,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2389,7 +2411,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2397,43 +2419,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2481,7 +2503,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2490,7 +2512,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2505,19 +2527,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2530,25 +2552,25 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2597,7 +2619,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2609,19 +2631,19 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -2637,33 +2659,35 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2687,13 +2711,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2714,10 +2738,10 @@
         <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -2726,13 +2750,13 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2740,10 +2764,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2751,7 +2775,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -2760,21 +2784,23 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2799,13 +2825,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2823,10 +2849,10 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>88</v>
@@ -2835,16 +2861,16 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2852,10 +2878,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2863,11 +2889,11 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2878,13 +2904,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2923,29 +2949,31 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -2962,10 +2990,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2976,7 +3004,7 @@
         <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -2988,17 +3016,15 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3035,19 +3061,17 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3056,7 +3080,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -3076,18 +3100,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3102,15 +3128,17 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3159,19 +3187,19 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3188,14 +3216,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3214,17 +3242,15 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>186</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3249,31 +3275,31 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3285,10 +3311,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3297,19 +3323,19 @@
         <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3325,19 +3351,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3363,10 +3389,10 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3387,7 +3413,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3402,28 +3428,28 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3442,7 +3468,7 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>200</v>
@@ -3450,7 +3476,9 @@
       <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3475,10 +3503,10 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3499,7 +3527,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3514,13 +3542,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3528,10 +3556,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3539,7 +3567,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -3554,18 +3582,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3613,10 +3639,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>88</v>
@@ -3628,13 +3654,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3653,7 +3679,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -3676,10 +3702,10 @@
       <c r="M21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3730,7 +3756,7 @@
         <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>88</v>
@@ -3745,7 +3771,7 @@
         <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>215</v>
@@ -3859,10 +3885,10 @@
         <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -3870,10 +3896,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3896,15 +3922,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3953,7 +3981,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3968,13 +3996,13 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3982,10 +4010,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4008,13 +4036,13 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4065,7 +4093,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4080,10 +4108,10 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>235</v>
@@ -4117,7 +4145,7 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>237</v>
@@ -4128,9 +4156,7 @@
       <c r="M25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4194,13 +4220,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4208,10 +4234,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4222,7 +4248,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4231,19 +4257,19 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4293,13 +4319,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4311,10 +4337,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4345,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>249</v>
@@ -4356,7 +4382,9 @@
       <c r="M27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4423,10 +4451,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4434,10 +4462,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4448,7 +4476,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4460,13 +4488,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4517,19 +4545,19 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -4541,26 +4569,26 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4572,17 +4600,15 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4631,19 +4657,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4655,19 +4681,19 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4680,26 +4706,24 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4747,7 +4771,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4771,47 +4795,51 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>131</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4835,13 +4863,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -4859,19 +4887,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -4883,15 +4911,15 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4899,10 +4927,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4914,17 +4942,15 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4949,13 +4975,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4973,13 +4999,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -4991,7 +5017,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5002,10 +5028,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5028,15 +5054,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5085,7 +5113,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5103,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5114,10 +5142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5128,7 +5156,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5140,13 +5168,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5197,13 +5225,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5215,7 +5243,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5226,10 +5254,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5240,7 +5268,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5252,13 +5280,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5309,13 +5337,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5327,7 +5355,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5338,10 +5366,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5352,7 +5380,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5364,13 +5392,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5421,19 +5449,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5445,26 +5473,26 @@
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5476,17 +5504,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5535,19 +5561,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5559,19 +5585,19 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5584,26 +5610,24 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5651,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5675,47 +5699,51 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>131</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5739,13 +5767,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5763,39 +5791,39 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5818,13 +5846,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5851,13 +5879,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -5875,7 +5903,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5893,7 +5921,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5904,10 +5932,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5930,13 +5958,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5987,7 +6015,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6005,7 +6033,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6016,10 +6044,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6030,7 +6058,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6042,13 +6070,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6075,13 +6103,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6099,13 +6127,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6117,7 +6145,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6128,10 +6156,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6154,13 +6182,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6187,13 +6215,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6211,7 +6239,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6229,7 +6257,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6240,10 +6268,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6266,13 +6294,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6323,7 +6351,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6352,10 +6380,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6378,17 +6406,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6437,7 +6463,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6452,7 +6478,7 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6461,6 +6487,120 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ClinicalImpression.xlsx
+++ b/StructureDefinition-profile-ClinicalImpression.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="331">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0245656-06:00</t>
+    <t>2026-02-17T14:42:26.7565959-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>Change in the status/pattern of a subject's condition since previously assessed, such as worsening, improving, or no change.  It is a subjective assessment of the direction of the change.</t>
   </si>
   <si>
-    <t>Element `ClinicalImpression.changePattern` is will have a context of ClinicalImpression based on following the parent source element upwards and mapping to `ClinicalImpression`.</t>
+    <t>Element `ClinicalImpression.changePattern` has a context of ClinicalImpression based on following the parent source element upwards and mapping to `ClinicalImpression`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -589,7 +589,7 @@
   </si>
   <si>
     <t>Note that the target element context `ClinicalImpression.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `ClinicalImpression.status` is mapped to FHIR R4 element `ClinicalImpression.status`.</t>
+Element `ClinicalImpression.status` has is mapped to FHIR R4 element `ClinicalImpression.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>ClinicalImpression.status.value</t>
@@ -932,6 +932,22 @@
   </si>
   <si>
     <t>ClinicalImpression.finding.extension</t>
+  </si>
+  <si>
+    <t>ClinicalImpression.finding.extension:finding</t>
+  </si>
+  <si>
+    <t>finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.finding|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ClinicalImpression.finding from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ClinicalImpression.finding` has is mapped to FHIR R4 element `ClinicalImpression.finding`, but has no comparisons.</t>
   </si>
   <si>
     <t>ClinicalImpression.finding.modifierExtension</t>
@@ -1338,7 +1354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5597,7 +5613,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5619,14 +5635,12 @@
         <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5663,16 +5677,14 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>179</v>
@@ -5699,7 +5711,7 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -5707,11 +5719,13 @@
         <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5724,26 +5738,24 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5791,7 +5803,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5800,7 +5812,7 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>139</v>
@@ -5815,47 +5827,51 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -5879,13 +5895,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -5903,31 +5919,31 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
@@ -5958,10 +5974,10 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>302</v>
@@ -5991,13 +6007,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6044,10 +6060,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6070,13 +6086,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6127,7 +6143,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6145,7 +6161,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6156,10 +6172,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6170,7 +6186,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6182,13 +6198,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6215,13 +6231,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6239,13 +6255,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6257,7 +6273,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6268,10 +6284,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6294,13 +6310,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6327,13 +6343,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6351,7 +6367,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6369,7 +6385,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6380,10 +6396,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6406,13 +6422,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6463,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6492,10 +6508,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6518,17 +6534,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N46" t="s" s="2">
         <v>324</v>
       </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6577,7 +6591,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6592,15 +6606,129 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="B47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ClinicalImpression.xlsx
+++ b/StructureDefinition-profile-ClinicalImpression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7565959-06:00</t>
+    <t>2026-02-20T11:59:20.7548228-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ClinicalImpression|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ClinicalImpression</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>changePattern</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.changePattern|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.changePattern}
 </t>
   </si>
   <si>
@@ -581,7 +581,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.status}
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
     <t>finding</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.finding|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.finding}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-ClinicalImpression.xlsx
+++ b/StructureDefinition-profile-ClinicalImpression.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7548228-06:00</t>
+    <t>2026-02-21T13:36:54.1592132-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ClinicalImpression</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ClinicalImpression|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>changePattern</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.changePattern}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.changePattern|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -581,7 +581,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -589,7 +589,7 @@
   </si>
   <si>
     <t>Note that the target element context `ClinicalImpression.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `ClinicalImpression.status` has is mapped to FHIR R4 element `ClinicalImpression.status`, but has no comparisons.</t>
+Element `ClinicalImpression.status` is mapped to FHIR R4 element `ClinicalImpression.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ClinicalImpression.status.value</t>
@@ -932,22 +932,6 @@
   </si>
   <si>
     <t>ClinicalImpression.finding.extension</t>
-  </si>
-  <si>
-    <t>ClinicalImpression.finding.extension:finding</t>
-  </si>
-  <si>
-    <t>finding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalImpression.finding}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ClinicalImpression.finding from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ClinicalImpression.finding` has is mapped to FHIR R4 element `ClinicalImpression.finding`, but has no comparisons.</t>
   </si>
   <si>
     <t>ClinicalImpression.finding.modifierExtension</t>
@@ -1354,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5613,7 +5597,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5635,12 +5619,14 @@
         <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5677,14 +5663,16 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>179</v>
@@ -5711,7 +5699,7 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
@@ -5719,13 +5707,11 @@
         <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5738,24 +5724,26 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5803,7 +5791,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5812,7 +5800,7 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>139</v>
@@ -5827,51 +5815,47 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -5895,13 +5879,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -5919,31 +5903,31 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -5974,10 +5958,10 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>302</v>
@@ -6007,13 +5991,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6060,10 +6044,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6086,13 +6070,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6143,7 +6127,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6161,7 +6145,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6172,10 +6156,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6186,7 +6170,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6198,13 +6182,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6231,13 +6215,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6255,13 +6239,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6273,7 +6257,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6284,10 +6268,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6310,13 +6294,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6343,13 +6327,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6367,7 +6351,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6385,7 +6369,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6396,10 +6380,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6422,13 +6406,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6479,7 +6463,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6508,10 +6492,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6534,15 +6518,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6591,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6606,7 +6592,7 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6615,120 +6601,6 @@
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
         <v>77</v>
       </c>
     </row>
